--- a/Excel/TI/Mon_TI_2024_11_29.xlsx
+++ b/Excel/TI/Mon_TI_2024_11_29.xlsx
@@ -636,7 +636,11 @@
           <t>Anthony Davis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>C</t>
@@ -653,7 +657,7 @@
         <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -662,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>11</v>
@@ -801,10 +805,10 @@
         <v>45.3</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1097,7 +1101,7 @@
         <v>41.8</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -1109,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
         <v>31</v>
@@ -1245,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1254,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
@@ -1541,13 +1545,13 @@
         <v>34.8</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
@@ -1664,77 +1668,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Ja Morant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>36.4</v>
+        <v>38.4</v>
       </c>
       <c r="G9" t="n">
         <v>33.3</v>
       </c>
       <c r="H9" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O9" t="n">
-        <v>30</v>
-      </c>
-      <c r="P9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>45</v>
-      </c>
-      <c r="R9" t="n">
         <v>41</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>48</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1763,46 +1781,46 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1815,57 +1833,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>35.4</v>
+        <v>36.4</v>
       </c>
       <c r="G10" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="H10" t="n">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="n">
+        <v>45</v>
+      </c>
+      <c r="R10" t="n">
         <v>41</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>@</t>
@@ -1882,7 +1898,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1950,7 +1966,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>6.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1963,7 +1979,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1974,45 +1990,45 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>35.4</v>
       </c>
       <c r="G11" t="n">
-        <v>31.7</v>
+        <v>32.9</v>
       </c>
       <c r="H11" t="n">
-        <v>29.6</v>
+        <v>32.3</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
       <c r="N11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O11" t="n">
-        <v>23</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2030,7 +2046,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2098,7 +2114,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-5.2</v>
+        <v>6.8</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2106,61 +2122,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="O12" t="n">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>27</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>46</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2169,18 +2185,16 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>28</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2209,7 +2223,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2219,7 +2233,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2229,17 +2243,17 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2248,7 +2262,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.5</v>
+        <v>-5.2</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2256,68 +2270,70 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>27.4</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
         <v>29</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
-      </c>
-      <c r="R13" t="n">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -2352,22 +2368,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2377,7 +2393,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2387,16 +2403,16 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-5.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2404,59 +2420,59 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" t="n">
         <v>31</v>
       </c>
-      <c r="G14" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>33</v>
-      </c>
-      <c r="O14" t="n">
-        <v>39</v>
-      </c>
       <c r="P14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R14" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2465,16 +2481,18 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>33</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2503,27 +2521,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2533,7 +2551,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2542,7 +2560,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-3.5</v>
+        <v>-5.2</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2550,15 +2568,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>G</t>
@@ -2566,13 +2588,13 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="H15" t="n">
-        <v>30.4</v>
+        <v>33.3</v>
       </c>
       <c r="I15" t="n">
         <v>13</v>
@@ -2581,28 +2603,28 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="O15" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P15" t="n">
         <v>40</v>
       </c>
       <c r="Q15" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R15" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2611,18 +2633,16 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>33</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -2646,32 +2666,32 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2681,7 +2701,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2690,7 +2710,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2698,12 +2718,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2714,43 +2734,43 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>30.4</v>
       </c>
       <c r="G16" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="H16" t="n">
-        <v>26.5</v>
+        <v>30.4</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="O16" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="P16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2759,16 +2779,18 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2792,12 +2814,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2807,27 +2829,27 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2836,7 +2858,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>10.2</v>
+        <v>0.1</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2844,78 +2866,78 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="H17" t="n">
         <v>26.5</v>
       </c>
       <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>52</v>
+      </c>
+      <c r="O17" t="n">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
         <v>15</v>
       </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>20</v>
-      </c>
-      <c r="O17" t="n">
-        <v>12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>52</v>
-      </c>
-      <c r="R17" t="n">
-        <v>49</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>6</v>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>-</t>
@@ -2938,12 +2960,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2953,36 +2975,36 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
       <c r="AI17" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>1.8</v>
+        <v>10.2</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -2990,18 +3012,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3009,49 +3035,55 @@
         <v>29.4</v>
       </c>
       <c r="G18" t="n">
-        <v>27.7</v>
+        <v>29.1</v>
       </c>
       <c r="H18" t="n">
-        <v>27.8</v>
+        <v>30.4</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>29</v>
-      </c>
-      <c r="O18" t="n">
-        <v>24</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R18" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3086,12 +3118,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3101,36 +3133,36 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.1</v>
+        <v>-7</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -3138,67 +3170,63 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>25.4</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>36</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="O19" t="n">
+        <v>12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>52</v>
+      </c>
+      <c r="R19" t="n">
+        <v>49</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3207,7 +3235,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3216,7 +3244,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -3245,7 +3273,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3255,7 +3283,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3265,17 +3293,17 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3284,7 +3312,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-3</v>
+        <v>1.8</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3292,60 +3320,60 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>29.4</v>
       </c>
       <c r="G20" t="n">
-        <v>24.4</v>
+        <v>27.7</v>
       </c>
       <c r="H20" t="n">
-        <v>24.4</v>
+        <v>27.8</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O20" t="n">
+        <v>24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33</v>
+      </c>
+      <c r="R20" t="n">
         <v>26</v>
       </c>
-      <c r="P20" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>55</v>
-      </c>
-      <c r="R20" t="n">
-        <v>45</v>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>vs</t>
@@ -3353,7 +3381,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3393,17 +3421,17 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3413,17 +3441,17 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3432,7 +3460,7 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>4</v>
+        <v>-0.1</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -3440,12 +3468,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kristaps Porziņģis</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3456,31 +3484,31 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>25.4</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -3504,23 +3532,21 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>34</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -3544,22 +3570,22 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -3569,26 +3595,26 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3601,7 +3627,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3612,51 +3638,43 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>30.6</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>55</v>
       </c>
       <c r="R22" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3744,7 +3762,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -3752,12 +3770,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Kristaps Porziņģis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3771,40 +3789,48 @@
         <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
-      </c>
-      <c r="O23" t="n">
-        <v>34</v>
-      </c>
-      <c r="P23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>16</v>
-      </c>
-      <c r="R23" t="n">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3813,16 +3839,18 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>36</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -3846,12 +3874,12 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3861,36 +3889,36 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
       <c r="AI23" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-4.7</v>
+        <v>-24</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -3898,79 +3926,83 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>16.6</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>21.5</v>
+        <v>23.9</v>
       </c>
       <c r="H24" t="n">
-        <v>23.1</v>
+        <v>21.9</v>
       </c>
       <c r="I24" t="n">
         <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="R24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>10</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -3994,22 +4026,22 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4019,7 +4051,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4029,16 +4061,16 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4046,35 +4078,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>30.6</v>
       </c>
       <c r="G25" t="n">
-        <v>20.7</v>
+        <v>23.5</v>
       </c>
       <c r="H25" t="n">
-        <v>20.7</v>
+        <v>23.5</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -4083,22 +4115,30 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>12</v>
-      </c>
-      <c r="P25" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -4107,7 +4147,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4147,37 +4187,37 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4186,7 +4226,7 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -4194,77 +4234,77 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>19.9</v>
+        <v>22.5</v>
       </c>
       <c r="H26" t="n">
-        <v>18.6</v>
+        <v>23.4</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="O26" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="P26" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R26" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -4293,27 +4333,27 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4323,16 +4363,16 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>-3</v>
+        <v>-4.7</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -4345,58 +4385,54 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>18.2</v>
+        <v>16.6</v>
       </c>
       <c r="G27" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="H27" t="n">
-        <v>19.8</v>
+        <v>23.1</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P27" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>18</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -4484,7 +4520,7 @@
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
@@ -4492,38 +4528,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>21.4</v>
       </c>
       <c r="G28" t="n">
-        <v>19</v>
+        <v>21.2</v>
       </c>
       <c r="H28" t="n">
-        <v>19</v>
+        <v>21.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4531,23 +4571,21 @@
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="n">
-        <v>11</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>26</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -4556,23 +4594,21 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>13</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -4596,12 +4632,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4611,7 +4647,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -4621,7 +4657,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4631,16 +4667,16 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>-19</v>
+        <v>1.3</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -4648,59 +4684,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>26.2</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>17.5</v>
+        <v>20.7</v>
       </c>
       <c r="H29" t="n">
-        <v>16.2</v>
+        <v>20.7</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P29" t="n">
         <v>14</v>
       </c>
       <c r="Q29" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R29" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -4709,7 +4745,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -4744,12 +4780,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4759,17 +4795,17 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -4779,7 +4815,7 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -4788,7 +4824,7 @@
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -4801,14 +4837,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>F</t>
@@ -4816,22 +4848,22 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>24.2</v>
       </c>
       <c r="G30" t="n">
-        <v>17.3</v>
+        <v>19.9</v>
       </c>
       <c r="H30" t="n">
-        <v>19.8</v>
+        <v>18.6</v>
       </c>
       <c r="I30" t="n">
         <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>2</v>
@@ -4839,22 +4871,20 @@
       <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N30" t="n">
+        <v>29</v>
       </c>
       <c r="O30" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P30" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4872,7 +4902,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -4940,7 +4970,7 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>3.8</v>
+        <v>-3</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -4953,54 +4983,58 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>14.2</v>
+        <v>18.2</v>
       </c>
       <c r="G31" t="n">
-        <v>15.7</v>
+        <v>19.8</v>
       </c>
       <c r="H31" t="n">
-        <v>15.5</v>
+        <v>19.8</v>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>7</v>
-      </c>
-      <c r="R31" t="n">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5088,7 +5122,7 @@
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>-2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -5096,12 +5130,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -5112,22 +5146,22 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>14.4</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>13.7</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>13.7</v>
+        <v>19</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -5136,37 +5170,47 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>28</v>
-      </c>
-      <c r="O32" t="n">
-        <v>20</v>
-      </c>
-      <c r="P32" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>28</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -5195,27 +5239,27 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5225,16 +5269,16 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>1.3</v>
+        <v>-19</v>
       </c>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
@@ -5242,59 +5286,63 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Dalton Knecht</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>8.800000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="G33" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="H33" t="n">
-        <v>10.1</v>
+        <v>16.2</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O33" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="R33" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5303,7 +5351,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -5338,12 +5386,12 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5353,7 +5401,7 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -5363,7 +5411,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -5373,7 +5421,7 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5382,7 +5430,7 @@
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
@@ -5390,17 +5438,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>Doubtful</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5410,25 +5458,25 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>43.8</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
-        <v>43.8</v>
+        <v>17.3</v>
       </c>
       <c r="H34" t="n">
-        <v>43.8</v>
+        <v>19.8</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -5438,43 +5486,35 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O34" t="n">
+        <v>12</v>
+      </c>
+      <c r="P34" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>20</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -5498,12 +5538,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5513,17 +5553,17 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5533,16 +5573,16 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>-7.1</v>
+        <v>3.8</v>
       </c>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
@@ -5550,82 +5590,68 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>D'Angelo Russell</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>36.4</v>
+        <v>14.2</v>
       </c>
       <c r="G35" t="n">
-        <v>35.5</v>
+        <v>15.7</v>
       </c>
       <c r="H35" t="n">
-        <v>35.5</v>
+        <v>15.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>14</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -5665,7 +5691,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -5675,36 +5701,36 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
           <t>ATL</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>-9</v>
+        <v>-2.9</v>
       </c>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
@@ -5712,19 +5738,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>G</t>
@@ -5732,51 +5754,43 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>38.4</v>
+        <v>14.4</v>
       </c>
       <c r="G36" t="n">
-        <v>33.3</v>
+        <v>13.7</v>
       </c>
       <c r="H36" t="n">
-        <v>33.3</v>
+        <v>13.7</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="n">
-        <v>2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2</v>
-      </c>
       <c r="M36" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28</v>
       </c>
       <c r="O36" t="n">
-        <v>41</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="P36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -5785,77 +5799,75 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>28</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
@@ -5864,7 +5876,7 @@
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>-0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
@@ -5872,132 +5884,118 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Donte DiVincenzo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>30.1</v>
+        <v>10.5</v>
       </c>
       <c r="H37" t="n">
-        <v>30.1</v>
+        <v>10.1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="n">
         <v>2</v>
       </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -6007,7 +6005,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6017,16 +6015,16 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>-1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
@@ -6034,12 +6032,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6049,47 +6047,53 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>36.2</v>
+        <v>43.8</v>
       </c>
       <c r="G38" t="n">
-        <v>29.7</v>
+        <v>43.8</v>
       </c>
       <c r="H38" t="n">
-        <v>31.1</v>
+        <v>43.8</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O38" t="n">
-        <v>34</v>
-      </c>
-      <c r="P38" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>19</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -6098,21 +6102,21 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -6136,12 +6140,12 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6151,36 +6155,36 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>-5.3</v>
+        <v>-7.1</v>
       </c>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
@@ -6193,7 +6197,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6208,29 +6212,29 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>29.4</v>
+        <v>36.4</v>
       </c>
       <c r="G39" t="n">
-        <v>29.1</v>
+        <v>35.5</v>
       </c>
       <c r="H39" t="n">
-        <v>30.4</v>
+        <v>35.5</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>2</v>
       </c>
-      <c r="K39" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>-</t>
@@ -6241,16 +6245,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>21</v>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>20</v>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -6338,7 +6346,7 @@
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
@@ -6346,12 +6354,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6361,30 +6369,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="n">
-        <v>23.9</v>
+        <v>30.1</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9</v>
+        <v>30.1</v>
       </c>
       <c r="I40" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -6394,17 +6402,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>16</v>
-      </c>
-      <c r="P40" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>42</v>
-      </c>
-      <c r="R40" t="n">
-        <v>15</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -6413,16 +6429,18 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V40" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -6446,12 +6464,12 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -6461,7 +6479,7 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
@@ -6471,7 +6489,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -6481,7 +6499,7 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -6490,7 +6508,7 @@
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
@@ -6503,7 +6521,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6513,49 +6531,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>21.4</v>
+        <v>36.2</v>
       </c>
       <c r="G41" t="n">
-        <v>21.2</v>
+        <v>29.7</v>
       </c>
       <c r="H41" t="n">
-        <v>21.2</v>
+        <v>31.1</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>4</v>
       </c>
-      <c r="K41" t="n">
-        <v>5</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O41" t="n">
+        <v>34</v>
       </c>
       <c r="P41" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q41" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -6578,7 +6594,7 @@
         </is>
       </c>
       <c r="V41" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -6646,7 +6662,7 @@
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>1.3</v>
+        <v>-5.3</v>
       </c>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
